--- a/results/EKAW/EKAW-analysis.xlsx
+++ b/results/EKAW/EKAW-analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="101">
   <si>
     <t>Tue Apr 24 02:56:55 PDT 2012</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>Demo Chair</t>
+  </si>
+  <si>
+    <t>α=0.1</t>
+  </si>
+  <si>
+    <t>α=0.05</t>
   </si>
 </sst>
 </file>
@@ -713,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA34"/>
+  <dimension ref="A1:CA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AO35" sqref="AO35"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="AO36" sqref="AO36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9028,6 +9034,10 @@
         <f t="shared" si="41"/>
         <v>23</v>
       </c>
+      <c r="BZ31" s="1">
+        <f>AVERAGE(BZ3:BZ30)</f>
+        <v>23.571428571428573</v>
+      </c>
     </row>
     <row r="32" spans="1:79">
       <c r="D32" s="1">
@@ -9184,6 +9194,9 @@
         <f>COUNTIF(D30:AN31,"&lt;5")</f>
         <v>5</v>
       </c>
+      <c r="AN33" t="s">
+        <v>99</v>
+      </c>
       <c r="AO33" s="1">
         <f>COUNTIF(AO31:BY31,"&gt;=18")</f>
         <v>26</v>
@@ -9193,6 +9206,15 @@
       <c r="AO34" s="1">
         <f>COUNTIF(AO31:BY31,"&gt;=22")</f>
         <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:41">
+      <c r="AN35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO35">
+        <f>COUNTIF(AO31:BY31,"&gt;=19")</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
